--- a/企業（きぎょう）.xlsx
+++ b/企業（きぎょう）.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EC0AA3-3722-4B30-925B-21B042CE0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10B41E1-8EE3-4F5E-8840-B27481ACA1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9120" yWindow="2448" windowWidth="11652" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="IT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
   <si>
     <t>残業</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +712,34 @@
   </si>
   <si>
     <t>しゅっきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出張</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（出差）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>務める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つとめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努める</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1064,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1118,7 @@
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>139</v>
       </c>
@@ -1101,8 +1140,14 @@
       <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="K2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>142</v>
       </c>
@@ -1121,8 +1166,14 @@
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="K3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
@@ -1144,8 +1195,14 @@
       <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="K4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -1165,7 +1222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1185,7 +1242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1209,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1252,7 +1309,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1295,15 +1352,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>56</v>
@@ -1321,15 +1378,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>62</v>
@@ -1347,15 +1404,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>64</v>
@@ -1373,15 +1430,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>65</v>
@@ -1399,12 +1456,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>69</v>
@@ -1424,10 +1484,10 @@
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>126</v>
@@ -1444,119 +1504,127 @@
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>145</v>
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>106</v>
       </c>
     </row>

--- a/企業（きぎょう）.xlsx
+++ b/企業（きぎょう）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10B41E1-8EE3-4F5E-8840-B27481ACA1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADB0401-55DB-4D93-89D5-8F8A63C5D71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
   <si>
     <t>残業</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -740,6 +740,49 @@
   </si>
   <si>
     <t>努める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月給</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げっきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（月薪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けっきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请假，缺勤）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1525,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
@@ -1502,15 +1545,24 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="H18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1518,7 +1570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1526,7 +1578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1534,7 +1586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -1545,7 +1597,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -1553,7 +1605,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1561,7 +1613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -1569,62 +1621,73 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>106</v>
       </c>
     </row>

--- a/企業（きぎょう）.xlsx
+++ b/企業（きぎょう）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADB0401-55DB-4D93-89D5-8F8A63C5D71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309BBEF4-475F-49CE-8EE4-2A9332BF3404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
   <si>
     <t>残業</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -782,6 +782,49 @@
         <scheme val="minor"/>
       </rPr>
       <t>请假，缺勤）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人手不足｜ひとでぶそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人力，人手）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1146,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1568,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
@@ -1545,7 +1588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1562,15 +1605,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1578,7 +1633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1586,7 +1641,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -1597,7 +1652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -1605,7 +1660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1613,7 +1668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -1621,7 +1676,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>156</v>
       </c>
@@ -1632,7 +1687,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -1640,7 +1695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
@@ -1648,7 +1703,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -1656,7 +1711,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>98</v>
       </c>
@@ -1667,7 +1722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>144</v>
       </c>
@@ -1675,7 +1730,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>103</v>
       </c>
@@ -1689,6 +1744,14 @@
       </c>
       <c r="B33" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/企業（きぎょう）.xlsx
+++ b/企業（きぎょう）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309BBEF4-475F-49CE-8EE4-2A9332BF3404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C308A-251E-4EAF-AFC9-A7C585D685B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="165">
   <si>
     <t>残業</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L34"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1662,95 +1662,87 @@
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>157</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="1" t="s">
         <v>160</v>
       </c>
     </row>

--- a/企業（きぎょう）.xlsx
+++ b/企業（きぎょう）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C308A-251E-4EAF-AFC9-A7C585D685B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86D5E0-0339-4473-A13D-F4B3F4CCE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="168">
   <si>
     <t>残業</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -826,6 +826,18 @@
       </rPr>
       <t>人力，人手）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿退社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ことぶきたいしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（女社员因结婚而离职）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1738,12 +1750,23 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
